--- a/仕様書/リソースリスト.xlsx
+++ b/仕様書/リソースリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="３Dリソースリスト" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>使うキャラ</t>
     <rPh sb="0" eb="1">
@@ -148,6 +148,16 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -750,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -859,7 +869,9 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">

--- a/仕様書/リソースリスト.xlsx
+++ b/仕様書/リソースリスト.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>使うキャラ</t>
     <rPh sb="0" eb="1">
@@ -82,20 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>突進</t>
-    <rPh sb="0" eb="2">
-      <t>トッシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>突進攻撃</t>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
@@ -107,10 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回避</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
@@ -158,6 +140,225 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客１</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客２</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客３</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚</t>
+    <rPh sb="0" eb="1">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供用カート</t>
+    <rPh sb="0" eb="3">
+      <t>コドモヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大型カート</t>
+    <rPh sb="0" eb="2">
+      <t>オオガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員</t>
+    <rPh sb="0" eb="2">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動オブジェクト</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警備員</t>
+    <rPh sb="0" eb="3">
+      <t>ケイビイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全キャラ共通</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走る</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警備員、プレイヤー</t>
+    <rPh sb="0" eb="3">
+      <t>ケイビイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗る</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに乗る</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを捕まえる</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捕まえる</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押す</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートを押す</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートをつかむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げる</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごを投げる</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに引かれた時</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -213,13 +414,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -502,31 +730,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -536,72 +762,126 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -619,19 +899,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -641,14 +922,26 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -662,27 +955,47 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -690,24 +1003,36 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -758,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -773,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -783,47 +1108,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -831,14 +1156,26 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -870,19 +1207,31 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -895,9 +1244,86 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様書/リソースリスト.xlsx
+++ b/仕様書/リソースリスト.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>使うキャラ</t>
     <rPh sb="0" eb="1">
@@ -360,6 +360,161 @@
     <rPh sb="8" eb="9">
       <t>トキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE名称</t>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージBGM１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージBGM２</t>
+  </si>
+  <si>
+    <t>ステージBGM３</t>
+  </si>
+  <si>
+    <t>リザルトBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル音</t>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの音</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの音２（ガタガタ）</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの音３（引っかかる）</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笛</t>
+    <rPh sb="0" eb="1">
+      <t>フエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵の音</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叫ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとうございました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悲鳴</t>
+    <rPh sb="0" eb="2">
+      <t>ヒメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突音</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナウンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デンジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択画面BGM</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OBASAN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -730,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -752,7 +907,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,22 +1054,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:C13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -920,157 +1079,204 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1078,6 +1284,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1086,7 +1293,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書/リソースリスト.xlsx
+++ b/仕様書/リソースリスト.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="３Dリソースリスト" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>使うキャラ</t>
     <rPh sb="0" eb="1">
@@ -67,17 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーを捕まえる</t>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おばさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,16 +84,6 @@
   <si>
     <t>回避</t>
     <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃の回避</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
       <t>カイヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -134,16 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吹っ飛ぶ</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カート</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -278,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>乗る</t>
     <rPh sb="0" eb="1">
       <t>ノ</t>
@@ -296,40 +261,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カートに乗る</t>
-    <rPh sb="4" eb="5">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>つかむ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーを捕まえる</t>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>捕まえる</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>押す</t>
     <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カートを押す</t>
-    <rPh sb="4" eb="5">
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -515,13 +452,365 @@
   </si>
   <si>
     <t>OBASAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛ぶ(空中で一回転する)</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客（どの客も）がカートにひかれたとき</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警備員</t>
+    <rPh sb="0" eb="3">
+      <t>ケイビイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客１（女）</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客２（男）</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートを押す（押しながら歩く）</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに乗る（カートで滑走）</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー、おばさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごをもつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押す２</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートを押す（押しながら走る）</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートからかごを持ち上げる（両手で）</t>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リョウテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを捕まえる（ヘッドスライディング）</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を回避する（横に転がる）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員</t>
+    <rPh sb="0" eb="2">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛ぶ(前に倒れるような感じ)</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛ぶ（後ろから)</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛ぶ（）</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>礼</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジで頭下げてる</t>
+    <rPh sb="3" eb="4">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚く</t>
+    <rPh sb="0" eb="1">
+      <t>オドロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと引いてる感じ</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両手上げて走る</t>
+    <rPh sb="0" eb="2">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣いて暴走してるような感じ</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ボウソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶた、牛</t>
+    <rPh sb="3" eb="4">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く（四足歩行）</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨンソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走る（四足歩行）</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨンソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動（うねる？ぺちぺち）</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動（イメージ的には飛び跳ねるかんじ）</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,7 +835,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -569,40 +858,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -882,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -897,21 +1160,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -920,124 +1183,124 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -1053,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -1071,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1080,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1091,72 +1354,72 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1166,7 +1429,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1176,7 +1439,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1186,7 +1449,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1196,7 +1459,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1206,7 +1469,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1216,7 +1479,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1226,7 +1489,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1236,7 +1499,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1246,7 +1509,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1256,7 +1519,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1289,209 +1552,301 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="41.875" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -1499,41 +1854,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書/リソースリスト.xlsx
+++ b/仕様書/リソースリスト.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>使うキャラ</t>
     <rPh sb="0" eb="1">
@@ -803,6 +803,51 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに乗っかる１</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに乗っかる２</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仰向けで寝転がる</t>
+    <rPh sb="0" eb="2">
+      <t>アオム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつ伏せで寝っ転がる</t>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1553,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1677,13 +1722,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -1691,13 +1736,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
@@ -1705,154 +1750,180 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
+      <c r="A12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
+      <c r="A16" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様書/リソースリスト.xlsx
+++ b/仕様書/リソースリスト.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>使うキャラ</t>
     <rPh sb="0" eb="1">
@@ -290,16 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カートに引かれた時</t>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルBGM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -670,16 +660,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吹っ飛ぶ（）</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>礼</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -718,19 +698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>両手上げて走る</t>
-    <rPh sb="0" eb="2">
-      <t>リョウテ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>泣いて暴走してるような感じ</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
@@ -744,74 +711,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ぶた、牛</t>
-    <rPh sb="3" eb="4">
-      <t>ウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩く（四足歩行）</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨンソク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>走る（四足歩行）</t>
-    <rPh sb="0" eb="1">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨンソク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動（うねる？ぺちぺち）</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動（イメージ的には飛び跳ねるかんじ）</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -848,6 +748,39 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両手を上げて走る</t>
+    <rPh sb="0" eb="2">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートを二つ持って走る</t>
+    <rPh sb="4" eb="5">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1216,7 +1149,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1379,7 +1312,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1388,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1399,72 +1332,72 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1474,7 +1407,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1484,7 +1417,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1494,7 +1427,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1504,7 +1437,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1514,7 +1447,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1524,7 +1457,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1534,7 +1467,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1544,7 +1477,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1554,7 +1487,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1564,7 +1497,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1598,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1619,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1633,7 +1566,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1647,171 +1580,171 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>96</v>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>82</v>
+      <c r="A16" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>85</v>
@@ -1819,111 +1752,80 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
